--- a/experiment/output/results/OfficeHome/CORAL/DG/3.xlsx
+++ b/experiment/output/results/OfficeHome/CORAL/DG/3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,23 +488,561 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250118_13-30-02_resnet50_EVE</t>
+          <t>250210_13-23-06_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>80.407</v>
+        <v>80.03400000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>80.694</v>
+        <v>79.92</v>
       </c>
       <c r="F2" t="n">
-        <v>79.489</v>
+        <v>79.92</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>250211_00-27-21_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>75.875</v>
+      </c>
+      <c r="E3" t="n">
+        <v>76.16200000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>75.875</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>250210_20-52-15_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>78.916</v>
+      </c>
+      <c r="E4" t="n">
+        <v>79.834</v>
+      </c>
+      <c r="F4" t="n">
+        <v>79.89100000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>250210_18-27-13_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>80.063</v>
+      </c>
+      <c r="E5" t="n">
+        <v>80.78</v>
+      </c>
+      <c r="F5" t="n">
+        <v>79.31699999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>250211_03-01-33_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>77.682</v>
+      </c>
+      <c r="E6" t="n">
+        <v>78.05500000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>250211_04-11-07_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>77.596</v>
+      </c>
+      <c r="E7" t="n">
+        <v>77.596</v>
+      </c>
+      <c r="F7" t="n">
+        <v>77.596</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>250210_14-39-56_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="E8" t="n">
+        <v>77.367</v>
+      </c>
+      <c r="F8" t="n">
+        <v>79.03</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>250211_05-18-51_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>79.94799999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>79.461</v>
+      </c>
+      <c r="F9" t="n">
+        <v>79.547</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>250211_07-47-26_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>80.29300000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>80.752</v>
+      </c>
+      <c r="F10" t="n">
+        <v>80.29300000000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>250210_17-10-14_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>80.608</v>
+      </c>
+      <c r="E11" t="n">
+        <v>79.116</v>
+      </c>
+      <c r="F11" t="n">
+        <v>79.17400000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>250210_23-18-11_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>79.604</v>
+      </c>
+      <c r="E12" t="n">
+        <v>79.86199999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>79.748</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>250210_19-40-02_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>80.29300000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>79.633</v>
+      </c>
+      <c r="F13" t="n">
+        <v>79.489</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>250211_09-02-57_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>250210_22-07-24_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>79.116</v>
+      </c>
+      <c r="E15" t="n">
+        <v>78.14100000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>78.887</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>250211_01-45-29_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>79.23099999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="F16" t="n">
+        <v>78.77200000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>250118_13-30-02_resnet50_EVE</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>80.407</v>
+      </c>
+      <c r="E17" t="n">
+        <v>80.694</v>
+      </c>
+      <c r="F17" t="n">
+        <v>79.489</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>250211_06-38-07_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>76.908</v>
+      </c>
+      <c r="E18" t="n">
+        <v>76.994</v>
+      </c>
+      <c r="F18" t="n">
+        <v>76.994</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>250210_15-51-42_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>78.68600000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>77.94</v>
+      </c>
+      <c r="F19" t="n">
+        <v>77.96899999999999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
